--- a/t_stats.xlsx
+++ b/t_stats.xlsx
@@ -1,71 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iskwien.sharepoint.com/sites/ISK-Wien/Freigegebene Dokumente/General/ZZ Gruppe/2024/Personal/Farkas/PMP_TM3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_291B036DC7D9B2810F6414FF950E2A5AA043B6BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C67271F-E0FD-4CBB-8A09-DCC3D292F850}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Significance</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>p value</t>
-  </si>
-  <si>
-    <t>News type</t>
-  </si>
-  <si>
-    <t>Is the mean different than 0?</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,31 +48,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -131,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,437 +350,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Interval</t>
+        </is>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NewsType</t>
+        </is>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Significant_5pct</t>
+        </is>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7.5956206336923704E-7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4.0310954169483163E-5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.6543592710655539E-2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3.8509133055597847E-2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.6914656876049389E-6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1.157642034051331E-6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.1126268000133952E-3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2.216955261516297E-3</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.22143972427611139</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3.770501669537837E-3</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.257225427468916E-2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>5.4265826862596664E-3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>8.4130951377638694E-2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>9.1062546082178064E-2</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.55537936086047668</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.1064088425809373</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5.3823963107196733E-2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5.9142021767647428E-2</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.22147165820366249</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.20674701917710481</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.1024390822898326</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8.2401160710863564E-2</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.1249161483519208</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.12660705046483811</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>5</v>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Significant_1pct</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -867,8 +395,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100147073C54AC26F4FB79B908A17AC475B" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="bb590998a44ab88fea0650574a73f554">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60580afd-2765-415e-a024-7e9ff761332b" xmlns:ns3="33819ea0-ebe2-49a1-a511-2fdfd15f8040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="20193022e6678c770d54d851a8531e65" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100147073C54AC26F4FB79B908A17AC475B" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f99071ebfb5f9602e001f3c8275bd3f1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60580afd-2765-415e-a024-7e9ff761332b" xmlns:ns3="33819ea0-ebe2-49a1-a511-2fdfd15f8040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="18b3f5ff91d0997a09a64edcf4beb1df" ns2:_="" ns3:_="">
     <xsd:import namespace="60580afd-2765-415e-a024-7e9ff761332b"/>
     <xsd:import namespace="33819ea0-ebe2-49a1-a511-2fdfd15f8040"/>
     <xsd:element name="properties">
@@ -955,7 +483,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0fb7a9c4-9a8b-4167-8a0f-2d2540a67809" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0fb7a9c4-9a8b-4167-8a0f-2d2540a67809" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -997,8 +525,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1088,6 +616,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="60580afd-2765-415e-a024-7e9ff761332b">
@@ -1098,34 +635,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85120DAC-1D32-44C8-BB5E-2A597EA22466}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CC6578-9767-4E2A-9323-BF82AAF1957A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1832C81A-F618-45D7-8EC1-EEE71695BC31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60580afd-2765-415e-a024-7e9ff761332b"/>
-    <ds:schemaRef ds:uri="33819ea0-ebe2-49a1-a511-2fdfd15f8040"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4263572F-5314-402D-9091-5D2006E412D0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380CD73C-4C87-4AFD-8196-31395187AC83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD40F153-D552-4F4F-B317-78BB72D70110}"/>
 </file>